--- a/medicine/Psychotrope/Vin_de_marque/Vin_de_marque.xlsx
+++ b/medicine/Psychotrope/Vin_de_marque/Vin_de_marque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin de marque est un vin élaboré, mis en bouteille et distribué par un négociant en vins. Le vin est commercialisé sous son nom (son domaine).
 </t>
@@ -511,7 +523,9 @@
           <t>Exemples de vins de marque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cellier des Dauphins
 Gévéor
@@ -553,9 +567,11 @@
           <t>Ventes de vins de marque en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voici le classement des vins de marque par ordre de ventes en France pour l'année 2014[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici le classement des vins de marque par ordre de ventes en France pour l'année 2014
 Les ventes sont exprimées en millions de bouteilles de 75cl pour l'année 2014.
 Sur les autres projets Wikimedia :
 Vin de marque, sur Wikimedia Commons
